--- a/src/main/resources/amres/core/template.xlsx
+++ b/src/main/resources/amres/core/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SourceCode\JavaWorkspace\AssignMark\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\JavaWorkspace\AssignMark\src\main\resources\amres\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F9B31-2F51-4076-8CF8-F22FF5AC8833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16012CD6-F191-40E0-AC94-7D8E72A51F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{22570DA0-A1EF-4303-A5C1-ED8F3E4C527C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{22570DA0-A1EF-4303-A5C1-ED8F3E4C527C}"/>
   </bookViews>
   <sheets>
     <sheet name="赋分表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>比例/人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,10 @@
       </rPr>
       <t>，否则请不要以学科命名</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,19 +560,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,12 +892,15 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -916,7 +923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -924,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +939,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -940,7 +947,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -948,7 +955,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -956,7 +963,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -964,7 +971,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -972,7 +979,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -980,7 +987,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -988,7 +995,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1051,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1059,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1091,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1117,36 +1124,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="33.9" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
       <c r="E26" t="s">
         <v>29</v>
       </c>
@@ -1163,14 +1170,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="I27" t="s">
         <v>30</v>
       </c>
@@ -1181,91 +1188,91 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="J28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/src/main/resources/amres/core/template.xlsx
+++ b/src/main/resources/amres/core/template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\JavaWorkspace\AssignMark\src\main\resources\amres\core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaWorkSpace\AssignMark\src\main\resources\amres\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16012CD6-F191-40E0-AC94-7D8E72A51F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF4759-15E3-4C47-BFC7-02C49CF12AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{22570DA0-A1EF-4303-A5C1-ED8F3E4C527C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22570DA0-A1EF-4303-A5C1-ED8F3E4C527C}"/>
   </bookViews>
   <sheets>
     <sheet name="赋分表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -889,15 +889,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E30283-EB0D-45CE-9F15-785661C3BB3E}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -923,7 +924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -931,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -939,7 +940,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -947,7 +948,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -955,7 +956,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -963,7 +964,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -971,7 +972,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -979,7 +980,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -987,7 +988,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -995,7 +996,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1138,8 +1139,9 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
@@ -1147,7 +1149,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1213,13 +1215,13 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -1228,32 +1230,35 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -1262,40 +1267,36 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A35:G35"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:H22" xr:uid="{251931F8-16E5-4213-AFF2-A94240D43E58}">
-      <formula1>-1</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
